--- a/src/test/resources/excel/Testdata.xlsx
+++ b/src/test/resources/excel/Testdata.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>prin("Hello Selenium")</t>
+  </si>
+  <si>
+    <t>hwe8236rwehdi</t>
+  </si>
+  <si>
+    <t>Narvana</t>
+  </si>
+  <si>
+    <t>hsdgewuigfj</t>
+  </si>
+  <si>
+    <t>678328u3h</t>
   </si>
 </sst>
 </file>
@@ -985,13 +997,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="35.1428571428571" customWidth="1"/>
@@ -1027,6 +1039,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/test/resources/excel/Testdata.xlsx
+++ b/src/test/resources/excel/Testdata.xlsx
@@ -62,7 +62,7 @@
     <t>hsdgewuigfj</t>
   </si>
   <si>
-    <t>678328u3h</t>
+    <t>ethgdhvsncv</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>

--- a/src/test/resources/excel/Testdata.xlsx
+++ b/src/test/resources/excel/Testdata.xlsx
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
